--- a/tables/table8.xlsx
+++ b/tables/table8.xlsx
@@ -429,24 +429,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>0.52</t>
@@ -454,7 +454,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -464,7 +464,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.38</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -533,12 +533,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -624,24 +624,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>0.21</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>0.72</t>
@@ -649,7 +649,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>
@@ -671,22 +671,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.27</t>
         </is>
       </c>
     </row>
@@ -718,34 +718,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>0.26</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>0.17</t>
@@ -753,7 +753,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.43</t>
         </is>
       </c>
     </row>
@@ -765,22 +765,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -819,22 +819,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -871,37 +871,37 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>0.29</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.28</t>
         </is>
       </c>
     </row>
@@ -918,17 +918,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.33</t>
         </is>
       </c>
     </row>
@@ -965,17 +965,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1007,22 +1007,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1596847</t>
+          <t>621535</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25012</t>
+          <t>16159</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30154</t>
+          <t>5267</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10009</t>
+          <t>6292</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2992</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>9966</t>
+          <t>6260</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.45</t>
         </is>
       </c>
     </row>
@@ -1113,32 +1113,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.35</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1261,22 +1261,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.11</t>
         </is>
       </c>
     </row>
@@ -1308,42 +1308,42 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>0.25</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>0.08</t>
         </is>
       </c>
     </row>
@@ -1355,22 +1355,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.43</t>
         </is>
       </c>
     </row>
@@ -1402,22 +1402,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.19</t>
         </is>
       </c>
     </row>
@@ -1456,22 +1456,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1560,12 +1560,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
     </row>
@@ -1597,34 +1597,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>0.68</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>0.68</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>0.67</t>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.68</t>
         </is>
       </c>
     </row>
@@ -1644,22 +1644,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1456521</t>
+          <t>568861</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21190</t>
+          <t>13698</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22856</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7394</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1758</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>4833</t>
         </is>
       </c>
     </row>

--- a/tables/table8.xlsx
+++ b/tables/table8.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -449,7 +449,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -570,37 +570,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1170,17 +1170,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>0.13</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.12</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">

--- a/tables/table8.xlsx
+++ b/tables/table8.xlsx
@@ -429,17 +429,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -449,22 +449,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.54</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.29</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -543,22 +543,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -570,42 +570,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>0.03</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.04</t>
         </is>
       </c>
     </row>
@@ -624,17 +624,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -649,17 +649,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.11</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.26</t>
         </is>
       </c>
     </row>
@@ -718,22 +718,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -743,17 +743,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.47</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.16</t>
         </is>
       </c>
     </row>
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>3.01</t>
@@ -849,12 +849,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -866,42 +866,42 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.27</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -943,12 +943,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
     </row>
@@ -960,17 +960,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -990,12 +990,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.42</t>
         </is>
       </c>
     </row>
@@ -1066,42 +1066,42 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.59</t>
         </is>
       </c>
     </row>
@@ -1113,17 +1113,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1143,12 +1143,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.28</t>
         </is>
       </c>
     </row>
@@ -1160,42 +1160,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>0.1</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.11</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
     </row>
@@ -1261,17 +1261,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1281,22 +1281,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -1313,19 +1313,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>0.31</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>0.21</t>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.24</t>
         </is>
       </c>
     </row>
@@ -1355,22 +1355,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1380,17 +1380,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.46</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1476,12 +1476,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1622,12 +1622,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>0.68</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.67</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
